--- a/doc/log/刘研小组日志记录表.xlsx
+++ b/doc/log/刘研小组日志记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="刘研" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,18 +35,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.完成python环境配置</t>
-  </si>
-  <si>
     <t>完成配置</t>
   </si>
   <si>
-    <t>19.10-21.30</t>
-  </si>
-  <si>
-    <t>2.学习python基础语法</t>
-  </si>
-  <si>
     <t>19:00-21:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,10 +92,6 @@
     <t>14：10-17：30</t>
   </si>
   <si>
-    <t>实际完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2019.7.15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,11 +108,185 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>上午08:00-11:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Linux部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步建立zutnlp-entity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成至dao层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上19:00-22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封装Standford</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步完成zutnlp-entity后端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午14:00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解实体关系抽取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步学习发布部署服务器上的项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题</t>
+  </si>
+  <si>
+    <t>解决方案</t>
+  </si>
+  <si>
+    <t>完成python环境配置</t>
+  </si>
+  <si>
+    <t>19：10-21：30</t>
+  </si>
+  <si>
+    <t>学习python基础语法</t>
+  </si>
+  <si>
+    <t>欠缺Python文件、方法、异常处理、文件/目录方法、内置函数</t>
+  </si>
+  <si>
+    <t>2019.7.16</t>
+  </si>
+  <si>
+    <t>8：05-11：30</t>
+  </si>
+  <si>
+    <t>完成python基础语法学习及高级基础的面向对象</t>
+  </si>
+  <si>
+    <t>完成基础语法的学习、类的封装继承重写</t>
+  </si>
+  <si>
+    <t>14：00-17：30</t>
+  </si>
+  <si>
+    <t>完成pyMysql进行增删改查操作、多线程</t>
+  </si>
+  <si>
+    <t>完成简单的增删改查、多线程</t>
+  </si>
+  <si>
+    <t>在实际操作增删改查时，Mysqldb-package无法正常下载</t>
+  </si>
+  <si>
+    <t>用pymysql-package代替使用</t>
+  </si>
+  <si>
+    <t>19：00-21：30</t>
+  </si>
+  <si>
+    <t>学习电子文档</t>
+  </si>
+  <si>
+    <t>看电子文档</t>
+  </si>
+  <si>
+    <t>2019.7.17</t>
+  </si>
+  <si>
+    <t>利用vue完成前端的搭建</t>
+  </si>
+  <si>
+    <t>完成整体的构建</t>
+  </si>
+  <si>
+    <t>14：05-17：40</t>
+  </si>
+  <si>
+    <t>将后台内容显示在前端table上</t>
+  </si>
+  <si>
+    <t>完成路由的配置，但是显示中出现格式错误</t>
+  </si>
+  <si>
+    <t>修改错误、看电子文档</t>
+  </si>
+  <si>
+    <t>修改错误-未完成</t>
+  </si>
+  <si>
+    <t>2019.7.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:15-11:30
+2:00-7:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">尝试hanlp的实体关系
+阅读《简明教程》
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hanlp的实体关系python未成功调用
+《简明教程》前两章了解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.7.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:15-11:30
+2:30-6:00
+7:30-9:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重写nlp前端
+nlp前端与后端连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端重写完毕
+连接失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邢朋举日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>崔梦婷日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邢朋举日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -133,7 +294,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,28 +335,42 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -297,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -308,40 +483,55 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -624,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -635,26 +825,27 @@
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="18.625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+    <row r="1" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>12</v>
+      <c r="A2" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -665,25 +856,97 @@
         <v>43661</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
+        <v>43662</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>43663</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -698,262 +961,492 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.75" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="5"/>
+    <col min="3" max="3" width="56.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="64.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="53.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.75" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="E2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-    </row>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+    </row>
+    <row r="40" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+    </row>
+    <row r="41" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+    </row>
+    <row r="43" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="16"/>
+      <c r="E43" s="16"/>
+    </row>
+    <row r="44" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -964,133 +1457,133 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="37.125" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="A1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:8" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -1099,8 +1592,30 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>